--- a/Approach/Communication/all sentences - labeled.xlsx
+++ b/Approach/Communication/all sentences - labeled.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Research itself\Step 3 - Design Development\1. Communication\Relation Extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\Communication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D645EC-FB44-40B2-BC6D-E603BC8000C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE11FBC-9FFE-479C-ABA3-7EDAA8EC6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="892">
   <si>
     <t>Sentence</t>
   </si>
@@ -2731,6 +2731,9 @@
   </si>
   <si>
     <t>This should be a U.S Government priority, and federal purchasing guidelines should reflect that by giving fleet purchasers the flexibility they need,” Sommer said</t>
+  </si>
+  <si>
+    <t>The "data" sheet contains all the data that was used to create the codes in an inductive manner. The resulting tree can be seen in the picture below:</t>
   </si>
 </sst>
 </file>
@@ -2815,6 +2818,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95187</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DB5E70-030A-FD94-4F79-BB0F155EEB2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190624" y="781050"/>
+          <a:ext cx="11706163" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3101,11 +3159,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E870D-9BA7-4860-9065-048DFA4CF68E}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
-      <selection activeCell="I867" sqref="I867"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21370,16 +21449,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC89DFE8-264E-4B2B-A4B3-73F60145E9FF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>